--- a/server/file/宿舍楼导入模板.xlsx
+++ b/server/file/宿舍楼导入模板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3C3EED-C873-4E9E-B37E-F796E22ACD15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC0D10C-059F-4F20-B010-54044E773525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宿舍楼信息" sheetId="1" r:id="rId1"/>
     <sheet name="1号楼房间信息" sheetId="2" r:id="rId2"/>
+    <sheet name="2号楼房间信息" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +49,10 @@
   </si>
   <si>
     <t>房间楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号楼-女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -413,6 +418,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -424,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D94F6-295D-4467-85A7-CF78254B9C14}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="A1:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -995,4 +1014,581 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E776AB3-5676-4737-8003-564BB7EDBB9E}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>109</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>110</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>201</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>202</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>203</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>204</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>205</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>206</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>207</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>208</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>209</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>210</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>301</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>302</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>303</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>304</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>305</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>306</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>307</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>308</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>309</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>310</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>401</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>402</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>403</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>404</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>405</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>406</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>407</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>408</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>409</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>410</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>501</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>502</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>503</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>504</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>505</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>506</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>507</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>508</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>509</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>510</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>